--- a/dish_washwer_hardware/BOM/Steel_form_Dish_washer.xlsx
+++ b/dish_washwer_hardware/BOM/Steel_form_Dish_washer.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\kicad6\KICAD 6.0.0\PROJECTS\steel_form_dish_washer\dish_washwer_hardware\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{24F54470-4D46-4D4F-824F-748D0CDA196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA2CE4C-38FE-4B68-BB54-086DC8F83550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="3084" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="3912" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steel_form_Dish_washer" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="160">
   <si>
     <t xml:space="preserve">    BZ1</t>
   </si>
@@ -31,42 +31,12 @@
     <t>digikey-footprints:Piezo_Transducer_THT_PS1240P02BT</t>
   </si>
   <si>
-    <t>https://product.tdk.com/info/en/catalog/datasheets/piezoelectronic_buzzer_ps_en.pdf</t>
-  </si>
-  <si>
-    <t>Audio Products</t>
-  </si>
-  <si>
-    <t>/product-detail/en/tdk-corporation/PS1240P02BT/445-2525-1-ND/935930</t>
-  </si>
-  <si>
-    <t>AUDIO PIEZO TRANSDUCER 30V TH</t>
-  </si>
-  <si>
-    <t>445-2525-1-ND</t>
-  </si>
-  <si>
-    <t>Alarms, Buzzers, and Sirens</t>
-  </si>
-  <si>
-    <t>TDK Corporation</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>&gt;  C1, C2</t>
-  </si>
-  <si>
     <t>22pF</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t xml:space="preserve">    C4</t>
   </si>
   <si>
@@ -85,15 +55,9 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>&gt;  C3, C5-C9, C11, C12, C14-C23</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
-    <t>&gt;  D1-D6</t>
-  </si>
-  <si>
     <t>Q_TRIAC_A1A2G</t>
   </si>
   <si>
@@ -112,27 +76,12 @@
     <t>Package_TO_SOT_SMD:TO-269AA</t>
   </si>
   <si>
-    <t>http://www.vishay.com/docs/88573/dfs.pdf</t>
-  </si>
-  <si>
-    <t>&gt;  F1, F2</t>
-  </si>
-  <si>
     <t>Polyfuse</t>
   </si>
   <si>
     <t>greencharge-footprints:BK250-600</t>
   </si>
   <si>
-    <t>&gt;  H1-H9</t>
-  </si>
-  <si>
-    <t>MountingHole</t>
-  </si>
-  <si>
-    <t>MountingHole:MountingHole_4.3mm_M4</t>
-  </si>
-  <si>
     <t xml:space="preserve">    J1</t>
   </si>
   <si>
@@ -157,9 +106,6 @@
     <t>greencharge-footprints:387207505</t>
   </si>
   <si>
-    <t>https://eu.mouser.com/ProductDetail/Molex/38720-7505?qs=92PpRWlfdpoj0N96O8CkTg%3D%3D</t>
-  </si>
-  <si>
     <t xml:space="preserve">    J4</t>
   </si>
   <si>
@@ -187,15 +133,6 @@
     <t>Connector_PinSocket_2.54mm:PinSocket_1x04_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t xml:space="preserve">    J8</t>
-  </si>
-  <si>
-    <t>Conn_01x10_Male</t>
-  </si>
-  <si>
-    <t>greencharge-footprints:custom_connector_0.83pitch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    J9</t>
   </si>
   <si>
@@ -220,9 +157,6 @@
     <t>WASH PUMP CONNECTOR</t>
   </si>
   <si>
-    <t>&gt;  J7, J12</t>
-  </si>
-  <si>
     <t>BOILER HEATER CONNECTOR</t>
   </si>
   <si>
@@ -286,15 +220,6 @@
     <t>greencharge-footprints:CONV_HLK-5M05</t>
   </si>
   <si>
-    <t>HI-LINK</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Manufacturer Recommendations</t>
-  </si>
-  <si>
     <t>&gt;  Q3-Q5</t>
   </si>
   <si>
@@ -400,9 +325,6 @@
     <t>Package_QFP:TQFP-100_14x14mm_P0.5mm</t>
   </si>
   <si>
-    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/Atmel-2549-8-bit-AVR-Microcontroller-ATmega640-1280-1281-2560-2561_datasheet.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U2</t>
   </si>
   <si>
@@ -412,9 +334,6 @@
     <t>digikey-footprints:SOT-223</t>
   </si>
   <si>
-    <t>http://www.ti.com/lit/ds/symlink/lm1117.pdf</t>
-  </si>
-  <si>
     <t>&gt;  U3, U4</t>
   </si>
   <si>
@@ -424,15 +343,6 @@
     <t>greencharge-footprints:QFN65P500X500X80-21N</t>
   </si>
   <si>
-    <t>Maxim Integrated</t>
-  </si>
-  <si>
-    <t>0.8 mm</t>
-  </si>
-  <si>
-    <t>IPC 7351B</t>
-  </si>
-  <si>
     <t>&gt;  U5, U14</t>
   </si>
   <si>
@@ -460,24 +370,6 @@
     <t>digikey-footprints:DIP-6_W7.62mm</t>
   </si>
   <si>
-    <t>http://optoelectronics.liteon.com/upload/download/DS-70-99-0019/MOC302X%20series%20201606.pdf</t>
-  </si>
-  <si>
-    <t>Isolators</t>
-  </si>
-  <si>
-    <t>/product-detail/en/lite-on-inc/MOC3021/160-1374-5-ND/385844</t>
-  </si>
-  <si>
-    <t>OPTOISOLATOR 5KV TRIAC 6DIP</t>
-  </si>
-  <si>
-    <t>160-1374-5-ND</t>
-  </si>
-  <si>
-    <t>Optoisolators - Triac, SCR Output</t>
-  </si>
-  <si>
     <t>Lite-On Inc.</t>
   </si>
   <si>
@@ -490,9 +382,6 @@
     <t>Package_DIP:DIP-4_W7.62mm</t>
   </si>
   <si>
-    <t>http://www.everlight.com/file/ProductFile/EL817.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U15</t>
   </si>
   <si>
@@ -502,9 +391,6 @@
     <t>Package_SO:TSSOP-20_4.4x6.5mm_P0.65mm</t>
   </si>
   <si>
-    <t>www.ti.com/lit/ds/symlink/txs0108e.pdf</t>
-  </si>
-  <si>
     <t>&gt;  U16, U17</t>
   </si>
   <si>
@@ -514,9 +400,6 @@
     <t>greencharge-footprints:EAST1616RGBA8</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/everlight-electronics-co-ltd/EAST1616RGBA8/11560367?s=N4IgTCBcDaIKIEEDKAVAjANkwJQOICEEAOEAXQF8g</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U18</t>
   </si>
   <si>
@@ -526,9 +409,6 @@
     <t>Package_DFN_QFN:UQFN-20_3x3mm_P0.4mm</t>
   </si>
   <si>
-    <t>https://resurgentsemi.com/wp-content/uploads/2018/09/MPR121_rev5-Resurgent.pdf?d453f8&amp;d453f8</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Y1</t>
   </si>
   <si>
@@ -539,12 +419,93 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>MPN</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C1, C2</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN220</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R9BB472</t>
+  </si>
+  <si>
+    <t>JMK105CBJ106MV-F</t>
+  </si>
+  <si>
+    <t>CL05A105KP5NNNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C3, C5-C9, C11, C12, C14-C23</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R7BB104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D1-D6</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>LCSC</t>
+  </si>
+  <si>
+    <t>F1, F2</t>
+  </si>
+  <si>
+    <t>BK250-600</t>
+  </si>
+  <si>
+    <t>S03B-XASS-1N-BN(LF)(SN)</t>
+  </si>
+  <si>
+    <t>mouser</t>
+  </si>
+  <si>
+    <t>S02B-XASS-1N-BN(LF)(SN)</t>
+  </si>
+  <si>
+    <t>210-72-03GB01</t>
+  </si>
+  <si>
+    <t>210-91-04GB01</t>
+  </si>
+  <si>
+    <t>6PCV_04_006</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Phoenix:TerminalBlock_Phoenix_MKDS-1,5-4_1x04_P5.00mm_Horizontal</t>
+  </si>
+  <si>
+    <t>DB128V-5.0-4P-GN-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  J12</t>
+  </si>
+  <si>
+    <t>6PCV02006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,7 +642,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,6 +820,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1022,8 +989,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1378,22 +1346,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1404,937 +1393,825 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="R2" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="N8" t="s">
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="S8">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>387207505</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" t="s">
-        <v>63</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" t="s">
-        <v>83</v>
-      </c>
-      <c r="S28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" t="s">
-        <v>88</v>
-      </c>
-      <c r="P29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>90</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="S30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="S31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="S33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N34" t="s">
-        <v>104</v>
-      </c>
-      <c r="S34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N35" t="s">
-        <v>107</v>
-      </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="S36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="S38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="S39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N40" t="s">
-        <v>118</v>
-      </c>
-      <c r="S40">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>126</v>
       </c>
-      <c r="S42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B49" t="s">
         <v>127</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C49" t="s">
         <v>128</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>129</v>
       </c>
-      <c r="D43" t="s">
+      <c r="B50" t="s">
         <v>130</v>
       </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C50" t="s">
         <v>131</v>
       </c>
-      <c r="B44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" t="s">
-        <v>133</v>
-      </c>
-      <c r="L44" t="s">
-        <v>134</v>
-      </c>
-      <c r="M44" t="s">
-        <v>135</v>
-      </c>
-      <c r="P44">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>136</v>
-      </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" t="s">
-        <v>139</v>
-      </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" t="s">
-        <v>142</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" t="s">
-        <v>147</v>
-      </c>
-      <c r="G47" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" t="s">
-        <v>148</v>
-      </c>
-      <c r="I47" t="s">
-        <v>149</v>
-      </c>
-      <c r="J47" t="s">
-        <v>150</v>
-      </c>
-      <c r="K47" t="s">
-        <v>151</v>
-      </c>
-      <c r="N47" t="s">
-        <v>144</v>
-      </c>
-      <c r="O47" t="s">
-        <v>152</v>
-      </c>
-      <c r="R47" t="s">
-        <v>10</v>
-      </c>
-      <c r="S47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>153</v>
-      </c>
-      <c r="B48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" t="s">
-        <v>156</v>
-      </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" t="s">
-        <v>160</v>
-      </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" t="s">
-        <v>164</v>
-      </c>
-      <c r="S50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>165</v>
-      </c>
-      <c r="B51" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" t="s">
-        <v>168</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="S52">
+      <c r="F50">
         <v>1</v>
       </c>
     </row>

--- a/dish_washwer_hardware/BOM/Steel_form_Dish_washer.xlsx
+++ b/dish_washwer_hardware/BOM/Steel_form_Dish_washer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\kicad6\KICAD 6.0.0\PROJECTS\steel_form_dish_washer\dish_washwer_hardware\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA2CE4C-38FE-4B68-BB54-086DC8F83550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85718C8D-5BB7-4947-859B-DC5752EC131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3912" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steel_form_Dish_washer" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="174">
   <si>
     <t xml:space="preserve">    BZ1</t>
   </si>
@@ -193,18 +193,12 @@
     <t>Connector_PinSocket_2.54mm:PinSocket_1x07_P2.54mm_Horizontal</t>
   </si>
   <si>
-    <t>&gt;  J17, J18</t>
-  </si>
-  <si>
     <t>Conn_02x07_Odd_Even</t>
   </si>
   <si>
     <t>Connector_IDC:IDC-Header_2x07_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>&gt;  K1-K4</t>
-  </si>
-  <si>
     <t>9-1440003-0</t>
   </si>
   <si>
@@ -220,60 +214,36 @@
     <t>greencharge-footprints:CONV_HLK-5M05</t>
   </si>
   <si>
-    <t>&gt;  Q3-Q5</t>
-  </si>
-  <si>
     <t>WST2N7002K</t>
   </si>
   <si>
     <t>Package_TO_SOT_SMD:SOT-23</t>
   </si>
   <si>
-    <t>&gt;  R1, R21-R23, R28-R31, R34, R35</t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
     <t>Resistor_SMD:R_0402_1005Metric</t>
   </si>
   <si>
-    <t>&gt;  R2, R3</t>
-  </si>
-  <si>
     <t>4300 R_0.1%</t>
   </si>
   <si>
-    <t>&gt;  R4, R24-R27, R32, R33</t>
-  </si>
-  <si>
     <t>200R</t>
   </si>
   <si>
-    <t>&gt;  R5, R6, R8, R10, R12</t>
-  </si>
-  <si>
     <t>100R</t>
   </si>
   <si>
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
-    <t>-- mixed values --</t>
-  </si>
-  <si>
-    <t>&gt;  R7, R11</t>
-  </si>
-  <si>
     <t>150R</t>
   </si>
   <si>
     <t>0603WAJ0151T5E</t>
   </si>
   <si>
-    <t>&gt;  R9, R13, R15</t>
-  </si>
-  <si>
     <t>4.7K</t>
   </si>
   <si>
@@ -283,24 +253,15 @@
     <t>75K</t>
   </si>
   <si>
-    <t>&gt;  R36, R37</t>
-  </si>
-  <si>
     <t>47K</t>
   </si>
   <si>
     <t>Resistor_SMD:R_0805_2012Metric</t>
   </si>
   <si>
-    <t>&gt;  R18-R20, R38</t>
-  </si>
-  <si>
     <t>1K</t>
   </si>
   <si>
-    <t>&gt;  RV1-RV14</t>
-  </si>
-  <si>
     <t>VDR-14D181K</t>
   </si>
   <si>
@@ -334,18 +295,12 @@
     <t>digikey-footprints:SOT-223</t>
   </si>
   <si>
-    <t>&gt;  U3, U4</t>
-  </si>
-  <si>
     <t>MAX31865ATP+T</t>
   </si>
   <si>
     <t>greencharge-footprints:QFN65P500X500X80-21N</t>
   </si>
   <si>
-    <t>&gt;  U5, U14</t>
-  </si>
-  <si>
     <t>9-1393243-3</t>
   </si>
   <si>
@@ -361,18 +316,12 @@
     <t>Package_DIP:DIP-8_W7.62mm</t>
   </si>
   <si>
-    <t>&gt;  U7-U12</t>
-  </si>
-  <si>
     <t>MOC3021</t>
   </si>
   <si>
     <t>digikey-footprints:DIP-6_W7.62mm</t>
   </si>
   <si>
-    <t>Lite-On Inc.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U13</t>
   </si>
   <si>
@@ -391,9 +340,6 @@
     <t>Package_SO:TSSOP-20_4.4x6.5mm_P0.65mm</t>
   </si>
   <si>
-    <t>&gt;  U16, U17</t>
-  </si>
-  <si>
     <t>EAST1616RGBA8</t>
   </si>
   <si>
@@ -500,13 +446,109 @@
   </si>
   <si>
     <t>6PCV02006</t>
+  </si>
+  <si>
+    <t>Z-231011814106</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/hlk-5m05-5v-5w-switch-power-supply-module/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R1, R21-R23, R28-R31, R34, R35</t>
+  </si>
+  <si>
+    <t>Q3-Q5</t>
+  </si>
+  <si>
+    <t>AC0402FR-0710KL</t>
+  </si>
+  <si>
+    <t>AC0402FR-074K3L</t>
+  </si>
+  <si>
+    <t>RC0402FR-07200RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-074K7L</t>
+  </si>
+  <si>
+    <t>0603WAF7502T5E</t>
+  </si>
+  <si>
+    <t>0603WAJ0473T5E</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>K2-1187SQ-D4SW-06</t>
+  </si>
+  <si>
+    <t>Digipart</t>
+  </si>
+  <si>
+    <t>LM1117S-3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U3, U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U5, U14</t>
+  </si>
+  <si>
+    <t>EL817D-F</t>
+  </si>
+  <si>
+    <t>TXS0108EPWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U7-U12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U16, U17</t>
+  </si>
+  <si>
+    <t>A2541HWR-7P</t>
+  </si>
+  <si>
+    <t>J17, J18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  K1-K4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R2, R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R4, R24-R27, R32, R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R5, R6, R8, R10, R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R7, R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R9, R13, R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R36, R37</t>
+  </si>
+  <si>
+    <t>R18-R20, R38</t>
+  </si>
+  <si>
+    <t>RV1-RV14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +683,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -945,7 +995,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -988,12 +1038,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1027,6 +1079,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1349,37 +1402,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" customWidth="1"/>
     <col min="4" max="4" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1396,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1404,7 +1457,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1413,10 +1466,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1433,10 +1486,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1453,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1473,10 +1526,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1484,7 +1537,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1493,10 +1546,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F7">
         <v>18</v>
@@ -1504,7 +1557,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1516,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1536,7 +1589,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1544,7 +1597,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -1553,10 +1606,10 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1573,10 +1626,10 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1593,10 +1646,10 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1616,7 +1669,7 @@
         <v>387207505</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1633,10 +1686,10 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1653,10 +1706,10 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1673,10 +1726,10 @@
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1696,7 +1749,7 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1716,7 +1769,7 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1730,13 +1783,13 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1744,7 +1797,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
@@ -1753,10 +1806,10 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1773,10 +1826,10 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1796,7 +1849,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1816,7 +1869,7 @@
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1832,19 +1885,31 @@
       <c r="C24" t="s">
         <v>56</v>
       </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
-        <v>59</v>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1852,13 +1917,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -1866,13 +1937,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1880,13 +1957,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -1894,13 +1977,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>129</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1908,13 +1997,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -1922,13 +2017,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -1936,16 +2037,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -1953,16 +2057,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1970,13 +2077,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -1984,13 +2097,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1998,13 +2117,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -2012,13 +2137,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -2026,16 +2157,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
       </c>
       <c r="F38">
         <v>14</v>
@@ -2043,13 +2177,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" t="s">
+        <v>129</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2057,13 +2197,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>155</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2071,13 +2217,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2085,13 +2237,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>155</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2099,13 +2257,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>128</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -2113,13 +2277,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2127,19 +2297,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -2147,13 +2317,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2161,13 +2337,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2175,13 +2357,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -2189,13 +2377,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2203,19 +2397,29 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" t="s">
+        <v>128</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D46" r:id="rId1" display="https://lcsc.com/product-detail/Optocouplers-Phototransistor-Output_Everlight-Elec-EL817D-F_C106901.html" xr:uid="{EE83D8DB-22AF-4830-A6A8-CE008C34A000}"/>
+    <hyperlink ref="D47" r:id="rId2" display="https://lcsc.com/product-detail/Translators-Level-Shifters_Texas-Instruments-TXS0108EPWR_C17206.html" xr:uid="{B6F5DA3D-3A4B-40EF-B2F5-D36B58307D02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>